--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-read-access-organization.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-read-access-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>This extension specifies an organization by identifier for resouce read access.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -250,7 +247,10 @@
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -261,6 +261,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -332,9 +335,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -420,7 +420,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -496,7 +496,7 @@
     <t>Extension.value[x].assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -746,57 +746,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -804,18 +802,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -834,163 +832,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.75" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="24.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="143.54296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="139.84375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.19921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -998,25 +996,25 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>78</v>
@@ -1070,13 +1068,13 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>79</v>
@@ -1085,15 +1083,15 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1101,10 +1099,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1116,13 +1114,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1173,13 +1171,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1188,27 +1186,27 @@
         <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
       </c>
@@ -1219,16 +1217,16 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1266,25 +1264,25 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
@@ -1293,15 +1291,15 @@
         <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1309,10 +1307,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1324,16 +1322,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1383,13 +1381,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1398,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1414,10 +1412,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1489,10 +1487,10 @@
         <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
@@ -1501,7 +1499,7 @@
         <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1517,10 +1515,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1532,13 +1530,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1589,13 +1587,13 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
@@ -1604,7 +1602,7 @@
         <v>20</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1616,15 +1614,15 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
       </c>
@@ -1635,16 +1633,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1682,25 +1680,25 @@
         <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1709,7 +1707,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1725,10 +1723,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1804,10 +1802,10 @@
         <v>121</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -1832,10 +1830,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1911,10 +1909,10 @@
         <v>132</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
@@ -1939,10 +1937,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -1954,7 +1952,7 @@
         <v>112</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>134</v>
@@ -2018,10 +2016,10 @@
         <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
@@ -2046,10 +2044,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2061,7 +2059,7 @@
         <v>112</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>143</v>
@@ -2123,10 +2121,10 @@
         <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -2151,10 +2149,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2226,10 +2224,10 @@
         <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -2254,10 +2252,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2331,10 +2329,10 @@
         <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-read-access-organization.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-read-access-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
